--- a/public/uploads/${ID_ORDEN_SERVICIO} ORDEN DE SERVICIO NEDETEL S A ${CONCENTRADOR_NOD_CODIGO} - ${EXTREMO_NOD_CODIGO} ${INICIALES_CLIENTE} INCREMENTO.xlsx
+++ b/public/uploads/${ID_ORDEN_SERVICIO} ORDEN DE SERVICIO NEDETEL S A ${CONCENTRADOR_NOD_CODIGO} - ${EXTREMO_NOD_CODIGO} ${INICIALES_CLIENTE} INCREMENTO.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="130">
   <si>
-    <t xml:space="preserve">ORDEN DE SERVICIO ${IDENTIFICADOR}</t>
+    <t xml:space="preserve">ORDEN DE SERVICIO ${ID_ORDEN_SERVICIO}</t>
   </si>
   <si>
     <t xml:space="preserve">FOR GCO UIO 01 ORDEN DE SERVICIO ver 11 01 08</t>
@@ -768,7 +768,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="109">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -785,14 +785,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -834,10 +826,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1029,10 +1017,6 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1053,18 +1037,10 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="170" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1081,28 +1057,8 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1274,9 +1230,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>2012400</xdr:colOff>
+      <xdr:colOff>2012040</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>112320</xdr:rowOff>
+      <xdr:rowOff>111960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1290,7 +1246,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16546320" y="16480080"/>
-          <a:ext cx="1871280" cy="968760"/>
+          <a:ext cx="1870920" cy="968400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1310,10 +1266,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:IW71"/>
+  <dimension ref="A1:V71"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -1343,7 +1299,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="2" s="5" customFormat="true" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -1366,1757 +1322,1520 @@
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="4"/>
-      <c r="AH2" s="4"/>
-      <c r="AI2" s="4"/>
-      <c r="AJ2" s="4"/>
-      <c r="AK2" s="4"/>
-      <c r="AL2" s="4"/>
-      <c r="AM2" s="4"/>
-      <c r="AN2" s="4"/>
-      <c r="AO2" s="4"/>
-      <c r="AP2" s="4"/>
-      <c r="AQ2" s="4"/>
-      <c r="AR2" s="4"/>
-      <c r="AS2" s="4"/>
-      <c r="AT2" s="4"/>
-      <c r="AU2" s="4"/>
-      <c r="AV2" s="4"/>
-      <c r="AW2" s="4"/>
-      <c r="AX2" s="4"/>
-      <c r="AY2" s="4"/>
-      <c r="AZ2" s="4"/>
-      <c r="BA2" s="4"/>
-      <c r="BB2" s="4"/>
-      <c r="BC2" s="4"/>
-      <c r="BD2" s="4"/>
-      <c r="BE2" s="4"/>
-      <c r="BF2" s="4"/>
-      <c r="BG2" s="4"/>
-      <c r="BH2" s="4"/>
-      <c r="BI2" s="4"/>
-      <c r="BJ2" s="4"/>
-      <c r="BK2" s="4"/>
-      <c r="BL2" s="4"/>
-      <c r="BM2" s="4"/>
-      <c r="BN2" s="4"/>
-      <c r="BO2" s="4"/>
-      <c r="BP2" s="4"/>
-      <c r="BQ2" s="4"/>
-      <c r="BR2" s="4"/>
-      <c r="BS2" s="4"/>
-      <c r="BT2" s="4"/>
-      <c r="BU2" s="4"/>
-      <c r="BV2" s="4"/>
-      <c r="BW2" s="4"/>
-      <c r="BX2" s="4"/>
-      <c r="BY2" s="4"/>
-      <c r="BZ2" s="4"/>
-      <c r="CA2" s="4"/>
-      <c r="CB2" s="4"/>
-      <c r="CC2" s="4"/>
-      <c r="CD2" s="4"/>
-      <c r="CE2" s="4"/>
-      <c r="CF2" s="4"/>
-      <c r="CG2" s="4"/>
-      <c r="CH2" s="4"/>
-      <c r="CI2" s="4"/>
-      <c r="CJ2" s="4"/>
-      <c r="CK2" s="4"/>
-      <c r="CL2" s="4"/>
-      <c r="CM2" s="4"/>
-      <c r="CN2" s="4"/>
-      <c r="CO2" s="4"/>
-      <c r="CP2" s="4"/>
-      <c r="CQ2" s="4"/>
-      <c r="CR2" s="4"/>
-      <c r="CS2" s="4"/>
-      <c r="CT2" s="4"/>
-      <c r="CU2" s="4"/>
-      <c r="CV2" s="4"/>
-      <c r="CW2" s="4"/>
-      <c r="CX2" s="4"/>
-      <c r="CY2" s="4"/>
-      <c r="CZ2" s="4"/>
-      <c r="DA2" s="4"/>
-      <c r="DB2" s="4"/>
-      <c r="DC2" s="4"/>
-      <c r="DD2" s="4"/>
-      <c r="DE2" s="4"/>
-      <c r="DF2" s="4"/>
-      <c r="DG2" s="4"/>
-      <c r="DH2" s="4"/>
-      <c r="DI2" s="4"/>
-      <c r="DJ2" s="4"/>
-      <c r="DK2" s="4"/>
-      <c r="DL2" s="4"/>
-      <c r="DM2" s="4"/>
-      <c r="DN2" s="4"/>
-      <c r="DO2" s="4"/>
-      <c r="DP2" s="4"/>
-      <c r="DQ2" s="4"/>
-      <c r="DR2" s="4"/>
-      <c r="DS2" s="4"/>
-      <c r="DT2" s="4"/>
-      <c r="DU2" s="4"/>
-      <c r="DV2" s="4"/>
-      <c r="DW2" s="4"/>
-      <c r="DX2" s="4"/>
-      <c r="DY2" s="4"/>
-      <c r="DZ2" s="4"/>
-      <c r="EA2" s="4"/>
-      <c r="EB2" s="4"/>
-      <c r="EC2" s="4"/>
-      <c r="ED2" s="4"/>
-      <c r="EE2" s="4"/>
-      <c r="EF2" s="4"/>
-      <c r="EG2" s="4"/>
-      <c r="EH2" s="4"/>
-      <c r="EI2" s="4"/>
-      <c r="EJ2" s="4"/>
-      <c r="EK2" s="4"/>
-      <c r="EL2" s="4"/>
-      <c r="EM2" s="4"/>
-      <c r="EN2" s="4"/>
-      <c r="EO2" s="4"/>
-      <c r="EP2" s="4"/>
-      <c r="EQ2" s="4"/>
-      <c r="ER2" s="4"/>
-      <c r="ES2" s="4"/>
-      <c r="ET2" s="4"/>
-      <c r="EU2" s="4"/>
-      <c r="EV2" s="4"/>
-      <c r="EW2" s="4"/>
-      <c r="EX2" s="4"/>
-      <c r="EY2" s="4"/>
-      <c r="EZ2" s="4"/>
-      <c r="FA2" s="4"/>
-      <c r="FB2" s="4"/>
-      <c r="FC2" s="4"/>
-      <c r="FD2" s="4"/>
-      <c r="FE2" s="4"/>
-      <c r="FF2" s="4"/>
-      <c r="FG2" s="4"/>
-      <c r="FH2" s="4"/>
-      <c r="FI2" s="4"/>
-      <c r="FJ2" s="4"/>
-      <c r="FK2" s="4"/>
-      <c r="FL2" s="4"/>
-      <c r="FM2" s="4"/>
-      <c r="FN2" s="4"/>
-      <c r="FO2" s="4"/>
-      <c r="FP2" s="4"/>
-      <c r="FQ2" s="4"/>
-      <c r="FR2" s="4"/>
-      <c r="FS2" s="4"/>
-      <c r="FT2" s="4"/>
-      <c r="FU2" s="4"/>
-      <c r="FV2" s="4"/>
-      <c r="FW2" s="4"/>
-      <c r="FX2" s="4"/>
-      <c r="FY2" s="4"/>
-      <c r="FZ2" s="4"/>
-      <c r="GA2" s="4"/>
-      <c r="GB2" s="4"/>
-      <c r="GC2" s="4"/>
-      <c r="GD2" s="4"/>
-      <c r="GE2" s="4"/>
-      <c r="GF2" s="4"/>
-      <c r="GG2" s="4"/>
-      <c r="GH2" s="4"/>
-      <c r="GI2" s="4"/>
-      <c r="GJ2" s="4"/>
-      <c r="GK2" s="4"/>
-      <c r="GL2" s="4"/>
-      <c r="GM2" s="4"/>
-      <c r="GN2" s="4"/>
-      <c r="GO2" s="4"/>
-      <c r="GP2" s="4"/>
-      <c r="GQ2" s="4"/>
-      <c r="GR2" s="4"/>
-      <c r="GS2" s="4"/>
-      <c r="GT2" s="4"/>
-      <c r="GU2" s="4"/>
-      <c r="GV2" s="4"/>
-      <c r="GW2" s="4"/>
-      <c r="GX2" s="4"/>
-      <c r="GY2" s="4"/>
-      <c r="GZ2" s="4"/>
-      <c r="HA2" s="4"/>
-      <c r="HB2" s="4"/>
-      <c r="HC2" s="4"/>
-      <c r="HD2" s="4"/>
-      <c r="HE2" s="4"/>
-      <c r="HF2" s="4"/>
-      <c r="HG2" s="4"/>
-      <c r="HH2" s="4"/>
-      <c r="HI2" s="4"/>
-      <c r="HJ2" s="4"/>
-      <c r="HK2" s="4"/>
-      <c r="HL2" s="4"/>
-      <c r="HM2" s="4"/>
-      <c r="HN2" s="4"/>
-      <c r="HO2" s="4"/>
-      <c r="HP2" s="4"/>
-      <c r="HQ2" s="4"/>
-      <c r="HR2" s="4"/>
-      <c r="HS2" s="4"/>
-      <c r="HT2" s="4"/>
-      <c r="HU2" s="4"/>
-      <c r="HV2" s="4"/>
-      <c r="HW2" s="4"/>
-      <c r="HX2" s="4"/>
-      <c r="HY2" s="4"/>
-      <c r="HZ2" s="4"/>
-      <c r="IA2" s="4"/>
-      <c r="IB2" s="4"/>
-      <c r="IC2" s="4"/>
-      <c r="ID2" s="4"/>
-      <c r="IE2" s="4"/>
-      <c r="IF2" s="4"/>
-      <c r="IG2" s="4"/>
-      <c r="IH2" s="4"/>
-      <c r="II2" s="4"/>
-      <c r="IJ2" s="4"/>
-      <c r="IK2" s="4"/>
-      <c r="IL2" s="4"/>
-      <c r="IM2" s="4"/>
-      <c r="IN2" s="4"/>
-      <c r="IO2" s="4"/>
-      <c r="IP2" s="4"/>
-      <c r="IQ2" s="4"/>
-      <c r="IR2" s="4"/>
-      <c r="IS2" s="4"/>
-      <c r="IT2" s="4"/>
-      <c r="IU2" s="4"/>
-      <c r="IV2" s="4"/>
-      <c r="IW2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12"/>
+      <c r="A8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="18" t="s">
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
     </row>
     <row r="12" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21" t="s">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="23" t="s">
+      <c r="D12" s="19"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="S12" s="24" t="s">
+      <c r="S12" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="T12" s="24"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="24"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
     </row>
     <row r="13" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="20"/>
-      <c r="B13" s="25" t="s">
+      <c r="A13" s="17"/>
+      <c r="B13" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="23" t="s">
+      <c r="D13" s="23"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="S13" s="27" t="s">
+      <c r="S13" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="T13" s="27"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="26"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="23"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="23" t="s">
+      <c r="D14" s="27"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="S14" s="31" t="s">
+      <c r="S14" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T14" s="31"/>
-      <c r="U14" s="31"/>
-      <c r="V14" s="31"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="28"/>
     </row>
     <row r="15" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="23" t="s">
+      <c r="D15" s="29"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="S15" s="34" t="s">
+      <c r="S15" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="T15" s="34"/>
-      <c r="U15" s="34"/>
-      <c r="V15" s="34"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="31"/>
     </row>
     <row r="16" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="23" t="s">
+      <c r="D16" s="21"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="S16" s="24" t="s">
+      <c r="S16" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="T16" s="24"/>
-      <c r="U16" s="24"/>
-      <c r="V16" s="24"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="37"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="38" t="s">
+      <c r="D17" s="34"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="S17" s="27" t="s">
+      <c r="S17" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="T17" s="27"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="26"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="23"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="37"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="23" t="s">
+      <c r="D18" s="34"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="S18" s="31" t="s">
+      <c r="S18" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="T18" s="31"/>
-      <c r="U18" s="31"/>
-      <c r="V18" s="31"/>
+      <c r="T18" s="28"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="28"/>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="40"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="23" t="s">
+      <c r="D19" s="37"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="S19" s="34" t="s">
+      <c r="S19" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="T19" s="34"/>
-      <c r="U19" s="34"/>
-      <c r="V19" s="34"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="31"/>
+      <c r="V19" s="31"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="39"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="23" t="s">
+      <c r="C20" s="36"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="S20" s="24" t="s">
+      <c r="S20" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="T20" s="24"/>
-      <c r="U20" s="24"/>
-      <c r="V20" s="24"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
     </row>
     <row r="21" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="42"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="23" t="s">
+      <c r="D21" s="39"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="S21" s="27" t="s">
+      <c r="S21" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="T21" s="27"/>
-      <c r="U21" s="28"/>
-      <c r="V21" s="26"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="25"/>
+      <c r="V21" s="23"/>
     </row>
     <row r="22" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="23" t="s">
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="S22" s="40" t="s">
+      <c r="S22" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="T22" s="40"/>
-      <c r="U22" s="40"/>
-      <c r="V22" s="40"/>
+      <c r="T22" s="37"/>
+      <c r="U22" s="37"/>
+      <c r="V22" s="37"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="46"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="47" t="s">
+      <c r="D23" s="43"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="S23" s="48" t="s">
+      <c r="S23" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="T23" s="48"/>
-      <c r="U23" s="28"/>
-      <c r="V23" s="26"/>
+      <c r="T23" s="45"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="23"/>
     </row>
     <row r="24" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="50" t="n">
+      <c r="C24" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="D24" s="50"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="23" t="s">
+      <c r="D24" s="47"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="S24" s="24" t="s">
+      <c r="S24" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="T24" s="24"/>
-      <c r="U24" s="24"/>
-      <c r="V24" s="24"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="50" t="n">
+      <c r="C25" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="D25" s="50"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="23" t="s">
+      <c r="D25" s="47"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="S25" s="52"/>
-      <c r="T25" s="52"/>
-      <c r="U25" s="52"/>
-      <c r="V25" s="52"/>
+      <c r="S25" s="49"/>
+      <c r="T25" s="49"/>
+      <c r="U25" s="49"/>
+      <c r="V25" s="49"/>
     </row>
     <row r="26" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="53" t="s">
+      <c r="B26" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="54" t="s">
+      <c r="C26" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="54"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="54" t="s">
+      <c r="D26" s="51"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="S26" s="56" t="s">
+      <c r="S26" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="T26" s="56"/>
-      <c r="U26" s="56"/>
-      <c r="V26" s="56"/>
+      <c r="T26" s="53"/>
+      <c r="U26" s="53"/>
+      <c r="V26" s="53"/>
     </row>
     <row r="27" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="58"/>
-      <c r="S27" s="59"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="55"/>
+      <c r="S27" s="56"/>
     </row>
     <row r="28" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="60"/>
-      <c r="B28" s="13" t="s">
+      <c r="A28" s="57"/>
+      <c r="B28" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="13"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="61"/>
-      <c r="B29" s="61"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="61"/>
-      <c r="L29" s="61"/>
-      <c r="M29" s="61"/>
-      <c r="N29" s="61"/>
-      <c r="O29" s="61"/>
-      <c r="P29" s="61"/>
-      <c r="Q29" s="61"/>
-      <c r="R29" s="61"/>
-      <c r="S29" s="61"/>
-      <c r="T29" s="61"/>
+      <c r="A29" s="58"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="58"/>
+      <c r="N29" s="58"/>
+      <c r="O29" s="58"/>
+      <c r="P29" s="58"/>
+      <c r="Q29" s="58"/>
+      <c r="R29" s="58"/>
+      <c r="S29" s="58"/>
+      <c r="T29" s="58"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A30" s="61"/>
-      <c r="B30" s="61"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="62" t="s">
+      <c r="A30" s="58"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="J30" s="62" t="s">
+      <c r="J30" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="K30" s="61"/>
-      <c r="L30" s="61"/>
-      <c r="M30" s="61"/>
-      <c r="P30" s="62" t="s">
+      <c r="K30" s="58"/>
+      <c r="L30" s="58"/>
+      <c r="M30" s="58"/>
+      <c r="P30" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="Q30" s="61"/>
-      <c r="R30" s="61"/>
-      <c r="S30" s="61"/>
-      <c r="T30" s="61"/>
+      <c r="Q30" s="58"/>
+      <c r="R30" s="58"/>
+      <c r="S30" s="58"/>
+      <c r="T30" s="58"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A31" s="61"/>
-      <c r="B31" s="61"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="62" t="s">
+      <c r="A31" s="58"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="J31" s="62" t="s">
+      <c r="J31" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="K31" s="61"/>
-      <c r="L31" s="61"/>
-      <c r="M31" s="61"/>
-      <c r="P31" s="62" t="s">
+      <c r="K31" s="58"/>
+      <c r="L31" s="58"/>
+      <c r="M31" s="58"/>
+      <c r="P31" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="Q31" s="61"/>
-      <c r="R31" s="61"/>
-      <c r="S31" s="61"/>
-      <c r="T31" s="61"/>
+      <c r="Q31" s="58"/>
+      <c r="R31" s="58"/>
+      <c r="S31" s="58"/>
+      <c r="T31" s="58"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A32" s="61"/>
-      <c r="B32" s="61"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="62"/>
-      <c r="K32" s="61"/>
-      <c r="L32" s="61"/>
-      <c r="M32" s="61"/>
-      <c r="P32" s="62" t="s">
+      <c r="A32" s="58"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="58"/>
+      <c r="M32" s="58"/>
+      <c r="P32" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="Q32" s="61"/>
-      <c r="R32" s="61"/>
-      <c r="S32" s="61"/>
-      <c r="T32" s="61"/>
+      <c r="Q32" s="58"/>
+      <c r="R32" s="58"/>
+      <c r="S32" s="58"/>
+      <c r="T32" s="58"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A33" s="61"/>
-      <c r="B33" s="61"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="61"/>
-      <c r="L33" s="61"/>
-      <c r="M33" s="61"/>
-      <c r="P33" s="62" t="s">
+      <c r="A33" s="58"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="58"/>
+      <c r="L33" s="58"/>
+      <c r="M33" s="58"/>
+      <c r="P33" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="Q33" s="61"/>
-      <c r="R33" s="61"/>
-      <c r="S33" s="61"/>
-      <c r="T33" s="61"/>
+      <c r="Q33" s="58"/>
+      <c r="R33" s="58"/>
+      <c r="S33" s="58"/>
+      <c r="T33" s="58"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A34" s="61"/>
-      <c r="B34" s="61"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="62"/>
-      <c r="K34" s="61"/>
-      <c r="L34" s="61"/>
-      <c r="M34" s="61"/>
-      <c r="P34" s="62" t="s">
+      <c r="A34" s="58"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="58"/>
+      <c r="M34" s="58"/>
+      <c r="P34" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="Q34" s="61"/>
-      <c r="R34" s="61"/>
-      <c r="S34" s="61"/>
-      <c r="T34" s="61"/>
+      <c r="Q34" s="58"/>
+      <c r="R34" s="58"/>
+      <c r="S34" s="58"/>
+      <c r="T34" s="58"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A35" s="61"/>
-      <c r="B35" s="61"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="62"/>
-      <c r="J35" s="62"/>
-      <c r="K35" s="61"/>
-      <c r="L35" s="61"/>
-      <c r="M35" s="61"/>
-      <c r="P35" s="62" t="s">
+      <c r="A35" s="58"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="59"/>
+      <c r="J35" s="59"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="58"/>
+      <c r="M35" s="58"/>
+      <c r="P35" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="Q35" s="61"/>
-      <c r="R35" s="61"/>
-      <c r="S35" s="61"/>
-      <c r="T35" s="61"/>
+      <c r="Q35" s="58"/>
+      <c r="R35" s="58"/>
+      <c r="S35" s="58"/>
+      <c r="T35" s="58"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A36" s="61"/>
-      <c r="B36" s="61"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="61"/>
-      <c r="I36" s="62"/>
-      <c r="J36" s="62"/>
-      <c r="K36" s="61"/>
-      <c r="L36" s="61"/>
-      <c r="M36" s="61"/>
-      <c r="P36" s="62" t="s">
+      <c r="A36" s="58"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="59"/>
+      <c r="J36" s="59"/>
+      <c r="K36" s="58"/>
+      <c r="L36" s="58"/>
+      <c r="M36" s="58"/>
+      <c r="P36" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="Q36" s="61"/>
-      <c r="R36" s="61"/>
-      <c r="S36" s="61"/>
-      <c r="T36" s="61"/>
+      <c r="Q36" s="58"/>
+      <c r="R36" s="58"/>
+      <c r="S36" s="58"/>
+      <c r="T36" s="58"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A37" s="61"/>
-      <c r="B37" s="61"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="62"/>
-      <c r="J37" s="62"/>
-      <c r="K37" s="61"/>
-      <c r="L37" s="61"/>
-      <c r="M37" s="61"/>
-      <c r="P37" s="62" t="s">
+      <c r="A37" s="58"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="59"/>
+      <c r="J37" s="59"/>
+      <c r="K37" s="58"/>
+      <c r="L37" s="58"/>
+      <c r="M37" s="58"/>
+      <c r="P37" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="Q37" s="61"/>
-      <c r="R37" s="61"/>
-      <c r="S37" s="61"/>
-      <c r="T37" s="61"/>
+      <c r="Q37" s="58"/>
+      <c r="R37" s="58"/>
+      <c r="S37" s="58"/>
+      <c r="T37" s="58"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A38" s="61"/>
-      <c r="B38" s="61"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="61"/>
-      <c r="I38" s="62"/>
-      <c r="J38" s="62"/>
-      <c r="K38" s="61"/>
-      <c r="L38" s="61"/>
-      <c r="M38" s="61"/>
-      <c r="P38" s="62" t="s">
+      <c r="A38" s="58"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="59"/>
+      <c r="J38" s="59"/>
+      <c r="K38" s="58"/>
+      <c r="L38" s="58"/>
+      <c r="M38" s="58"/>
+      <c r="P38" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="Q38" s="61"/>
-      <c r="R38" s="61"/>
-      <c r="S38" s="61"/>
-      <c r="T38" s="61"/>
+      <c r="Q38" s="58"/>
+      <c r="R38" s="58"/>
+      <c r="S38" s="58"/>
+      <c r="T38" s="58"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A39" s="61"/>
-      <c r="B39" s="61"/>
-      <c r="C39" s="61"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="61"/>
-      <c r="I39" s="62"/>
-      <c r="J39" s="62"/>
-      <c r="K39" s="61"/>
-      <c r="L39" s="61"/>
-      <c r="M39" s="61"/>
-      <c r="P39" s="62" t="s">
+      <c r="A39" s="58"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="59"/>
+      <c r="J39" s="59"/>
+      <c r="K39" s="58"/>
+      <c r="L39" s="58"/>
+      <c r="M39" s="58"/>
+      <c r="P39" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="Q39" s="61"/>
-      <c r="R39" s="61"/>
-      <c r="S39" s="61"/>
-      <c r="T39" s="61"/>
+      <c r="Q39" s="58"/>
+      <c r="R39" s="58"/>
+      <c r="S39" s="58"/>
+      <c r="T39" s="58"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A40" s="61"/>
-      <c r="B40" s="61"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="61"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="61"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="61"/>
-      <c r="I40" s="62"/>
-      <c r="J40" s="62"/>
-      <c r="K40" s="61"/>
-      <c r="L40" s="61"/>
-      <c r="M40" s="61"/>
-      <c r="P40" s="62" t="s">
+      <c r="A40" s="58"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="58"/>
+      <c r="G40" s="58"/>
+      <c r="H40" s="58"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="59"/>
+      <c r="K40" s="58"/>
+      <c r="L40" s="58"/>
+      <c r="M40" s="58"/>
+      <c r="P40" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="Q40" s="61"/>
-      <c r="R40" s="61"/>
-      <c r="S40" s="61"/>
-      <c r="T40" s="61"/>
+      <c r="Q40" s="58"/>
+      <c r="R40" s="58"/>
+      <c r="S40" s="58"/>
+      <c r="T40" s="58"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A41" s="61"/>
-      <c r="B41" s="61"/>
-      <c r="C41" s="61"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="62"/>
-      <c r="J41" s="62"/>
-      <c r="K41" s="61"/>
-      <c r="L41" s="61"/>
-      <c r="M41" s="61"/>
-      <c r="P41" s="62"/>
-      <c r="Q41" s="61"/>
-      <c r="R41" s="61"/>
-      <c r="S41" s="61"/>
-      <c r="T41" s="61"/>
+      <c r="A41" s="58"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="59"/>
+      <c r="J41" s="59"/>
+      <c r="K41" s="58"/>
+      <c r="L41" s="58"/>
+      <c r="M41" s="58"/>
+      <c r="P41" s="59"/>
+      <c r="Q41" s="58"/>
+      <c r="R41" s="58"/>
+      <c r="S41" s="58"/>
+      <c r="T41" s="58"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A42" s="61"/>
-      <c r="B42" s="61"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61"/>
-      <c r="I42" s="61"/>
-      <c r="J42" s="61"/>
-      <c r="K42" s="61"/>
-      <c r="L42" s="61"/>
-      <c r="M42" s="61"/>
-      <c r="N42" s="61"/>
-      <c r="O42" s="61"/>
-      <c r="P42" s="61"/>
-      <c r="Q42" s="61"/>
-      <c r="R42" s="61"/>
-      <c r="S42" s="61"/>
-      <c r="T42" s="61"/>
+      <c r="A42" s="58"/>
+      <c r="B42" s="58"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="58"/>
+      <c r="J42" s="58"/>
+      <c r="K42" s="58"/>
+      <c r="L42" s="58"/>
+      <c r="M42" s="58"/>
+      <c r="N42" s="58"/>
+      <c r="O42" s="58"/>
+      <c r="P42" s="58"/>
+      <c r="Q42" s="58"/>
+      <c r="R42" s="58"/>
+      <c r="S42" s="58"/>
+      <c r="T42" s="58"/>
     </row>
     <row r="43" customFormat="false" ht="66" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="61"/>
-      <c r="B43" s="63" t="s">
+      <c r="A43" s="58"/>
+      <c r="B43" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="C43" s="63" t="s">
+      <c r="C43" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="D43" s="64" t="s">
+      <c r="D43" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="E43" s="64" t="s">
+      <c r="E43" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="F43" s="64" t="s">
+      <c r="F43" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="G43" s="64" t="s">
+      <c r="G43" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="H43" s="64" t="s">
+      <c r="H43" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="I43" s="64" t="s">
+      <c r="I43" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="J43" s="64" t="s">
+      <c r="J43" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="K43" s="64" t="s">
+      <c r="K43" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="L43" s="64" t="s">
+      <c r="L43" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="M43" s="64" t="s">
+      <c r="M43" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="N43" s="64" t="s">
+      <c r="N43" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="O43" s="64" t="s">
+      <c r="O43" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="P43" s="64" t="s">
+      <c r="P43" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="Q43" s="64" t="s">
+      <c r="Q43" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="R43" s="64" t="s">
+      <c r="R43" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="S43" s="64" t="s">
+      <c r="S43" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="T43" s="64" t="s">
+      <c r="T43" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="U43" s="64" t="s">
+      <c r="U43" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="V43" s="64" t="s">
+      <c r="V43" s="61" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="44" s="4" customFormat="true" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="65"/>
-      <c r="B44" s="66" t="s">
+    <row r="44" s="1" customFormat="true" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="58"/>
+      <c r="B44" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="66" t="s">
+      <c r="C44" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="D44" s="66" t="s">
+      <c r="D44" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="E44" s="66" t="s">
+      <c r="E44" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="F44" s="66" t="s">
+      <c r="F44" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="G44" s="66" t="s">
+      <c r="G44" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="H44" s="66" t="s">
+      <c r="H44" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="I44" s="66" t="s">
+      <c r="I44" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="J44" s="66" t="s">
+      <c r="J44" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="K44" s="67" t="n">
+      <c r="K44" s="63" t="n">
         <v>0.995</v>
       </c>
-      <c r="L44" s="66" t="s">
+      <c r="L44" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="M44" s="66" t="s">
+      <c r="M44" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="N44" s="66" t="s">
+      <c r="N44" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="O44" s="66" t="s">
+      <c r="O44" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="P44" s="66" t="s">
+      <c r="P44" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="Q44" s="66" t="s">
+      <c r="Q44" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="R44" s="68" t="s">
+      <c r="R44" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="S44" s="69" t="s">
+      <c r="S44" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="T44" s="70" t="s">
+      <c r="T44" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="U44" s="71"/>
-      <c r="V44" s="72" t="s">
+      <c r="U44" s="8"/>
+      <c r="V44" s="67" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="true" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="61"/>
-      <c r="B45" s="73"/>
-      <c r="C45" s="74"/>
-      <c r="D45" s="75"/>
-      <c r="E45" s="76"/>
-      <c r="F45" s="77"/>
-      <c r="G45" s="73"/>
-      <c r="H45" s="73"/>
-      <c r="I45" s="73"/>
-      <c r="J45" s="73"/>
-      <c r="K45" s="78"/>
-      <c r="L45" s="73"/>
-      <c r="M45" s="73"/>
-      <c r="N45" s="73"/>
-      <c r="O45" s="73"/>
-      <c r="P45" s="73"/>
-      <c r="Q45" s="73"/>
-      <c r="R45" s="79"/>
-      <c r="S45" s="80"/>
-      <c r="T45" s="81"/>
-      <c r="U45" s="10"/>
-      <c r="V45" s="10"/>
+      <c r="A45" s="58"/>
+      <c r="B45" s="62"/>
+      <c r="C45" s="68"/>
+      <c r="D45" s="69"/>
+      <c r="E45" s="70"/>
+      <c r="F45" s="71"/>
+      <c r="G45" s="62"/>
+      <c r="H45" s="62"/>
+      <c r="I45" s="62"/>
+      <c r="J45" s="62"/>
+      <c r="K45" s="63"/>
+      <c r="L45" s="62"/>
+      <c r="M45" s="62"/>
+      <c r="N45" s="62"/>
+      <c r="O45" s="62"/>
+      <c r="P45" s="62"/>
+      <c r="Q45" s="62"/>
+      <c r="R45" s="64"/>
+      <c r="S45" s="65"/>
+      <c r="T45" s="67"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="8"/>
     </row>
     <row r="46" s="1" customFormat="true" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="61"/>
-      <c r="B46" s="73"/>
-      <c r="C46" s="74"/>
-      <c r="D46" s="75"/>
-      <c r="E46" s="76"/>
-      <c r="F46" s="77"/>
-      <c r="G46" s="73"/>
-      <c r="H46" s="73"/>
-      <c r="I46" s="73"/>
-      <c r="J46" s="73"/>
-      <c r="K46" s="78"/>
-      <c r="L46" s="73"/>
-      <c r="M46" s="73"/>
-      <c r="N46" s="73"/>
-      <c r="O46" s="73"/>
-      <c r="P46" s="73"/>
-      <c r="Q46" s="73"/>
-      <c r="R46" s="79"/>
-      <c r="S46" s="80"/>
-      <c r="T46" s="81"/>
-      <c r="U46" s="10"/>
-      <c r="V46" s="82"/>
+      <c r="A46" s="58"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="70"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="62"/>
+      <c r="H46" s="62"/>
+      <c r="I46" s="62"/>
+      <c r="J46" s="62"/>
+      <c r="K46" s="63"/>
+      <c r="L46" s="62"/>
+      <c r="M46" s="62"/>
+      <c r="N46" s="62"/>
+      <c r="O46" s="62"/>
+      <c r="P46" s="62"/>
+      <c r="Q46" s="62"/>
+      <c r="R46" s="64"/>
+      <c r="S46" s="65"/>
+      <c r="T46" s="67"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="72"/>
     </row>
     <row r="47" s="1" customFormat="true" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="61"/>
-      <c r="B47" s="73"/>
-      <c r="C47" s="73"/>
-      <c r="D47" s="75"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="73"/>
-      <c r="G47" s="73"/>
-      <c r="H47" s="73"/>
-      <c r="I47" s="73"/>
-      <c r="J47" s="73"/>
-      <c r="K47" s="78"/>
-      <c r="L47" s="73"/>
-      <c r="M47" s="73"/>
-      <c r="N47" s="73"/>
-      <c r="O47" s="73"/>
-      <c r="P47" s="73"/>
-      <c r="Q47" s="73"/>
-      <c r="R47" s="79"/>
-      <c r="S47" s="83"/>
-      <c r="T47" s="83"/>
-      <c r="U47" s="10"/>
-      <c r="V47" s="82"/>
+      <c r="A47" s="58"/>
+      <c r="B47" s="62"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="62"/>
+      <c r="G47" s="62"/>
+      <c r="H47" s="62"/>
+      <c r="I47" s="62"/>
+      <c r="J47" s="62"/>
+      <c r="K47" s="63"/>
+      <c r="L47" s="62"/>
+      <c r="M47" s="62"/>
+      <c r="N47" s="62"/>
+      <c r="O47" s="62"/>
+      <c r="P47" s="62"/>
+      <c r="Q47" s="62"/>
+      <c r="R47" s="64"/>
+      <c r="S47" s="66"/>
+      <c r="T47" s="66"/>
+      <c r="U47" s="8"/>
+      <c r="V47" s="72"/>
     </row>
     <row r="48" s="1" customFormat="true" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="61"/>
-      <c r="B48" s="73"/>
-      <c r="C48" s="73"/>
-      <c r="D48" s="75"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="73"/>
-      <c r="G48" s="73"/>
-      <c r="H48" s="73"/>
-      <c r="I48" s="73"/>
-      <c r="J48" s="73"/>
-      <c r="K48" s="78"/>
-      <c r="L48" s="73"/>
-      <c r="M48" s="73"/>
-      <c r="N48" s="73"/>
-      <c r="O48" s="73"/>
-      <c r="P48" s="73"/>
-      <c r="Q48" s="73"/>
-      <c r="R48" s="79"/>
-      <c r="S48" s="83"/>
-      <c r="T48" s="83"/>
-      <c r="U48" s="10"/>
-      <c r="V48" s="82"/>
+      <c r="A48" s="58"/>
+      <c r="B48" s="62"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="62"/>
+      <c r="G48" s="62"/>
+      <c r="H48" s="62"/>
+      <c r="I48" s="62"/>
+      <c r="J48" s="62"/>
+      <c r="K48" s="63"/>
+      <c r="L48" s="62"/>
+      <c r="M48" s="62"/>
+      <c r="N48" s="62"/>
+      <c r="O48" s="62"/>
+      <c r="P48" s="62"/>
+      <c r="Q48" s="62"/>
+      <c r="R48" s="64"/>
+      <c r="S48" s="66"/>
+      <c r="T48" s="66"/>
+      <c r="U48" s="8"/>
+      <c r="V48" s="72"/>
     </row>
     <row r="49" customFormat="false" ht="57.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R49" s="84" t="s">
+      <c r="R49" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="S49" s="81" t="s">
+      <c r="S49" s="67" t="s">
         <v>102</v>
       </c>
-      <c r="T49" s="81" t="s">
+      <c r="T49" s="67" t="s">
         <v>103</v>
       </c>
-      <c r="U49" s="85"/>
+      <c r="U49" s="74"/>
     </row>
     <row r="50" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R50" s="84" t="s">
+      <c r="R50" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="S50" s="81" t="s">
+      <c r="S50" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="T50" s="81" t="s">
+      <c r="T50" s="67" t="s">
         <v>108</v>
       </c>
-      <c r="U50" s="85"/>
+      <c r="U50" s="74"/>
     </row>
     <row r="51" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R51" s="84" t="s">
+      <c r="R51" s="73" t="s">
         <v>109</v>
       </c>
-      <c r="S51" s="81" t="s">
+      <c r="S51" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="T51" s="81" t="s">
+      <c r="T51" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="U51" s="85"/>
+      <c r="U51" s="74"/>
     </row>
     <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="86"/>
-      <c r="C52" s="86"/>
-      <c r="D52" s="86"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="87"/>
-      <c r="H52" s="87"/>
-      <c r="I52" s="87"/>
-      <c r="J52" s="87"/>
-      <c r="K52" s="87"/>
-      <c r="L52" s="87"/>
-      <c r="M52" s="87"/>
-      <c r="N52" s="87"/>
-      <c r="O52" s="87"/>
-      <c r="P52" s="87"/>
-      <c r="Q52" s="87"/>
-      <c r="R52" s="86"/>
+      <c r="B52" s="75"/>
+      <c r="C52" s="75"/>
+      <c r="D52" s="75"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="76"/>
+      <c r="H52" s="76"/>
+      <c r="I52" s="76"/>
+      <c r="J52" s="76"/>
+      <c r="K52" s="76"/>
+      <c r="L52" s="76"/>
+      <c r="M52" s="76"/>
+      <c r="N52" s="76"/>
+      <c r="O52" s="76"/>
+      <c r="P52" s="76"/>
+      <c r="Q52" s="76"/>
+      <c r="R52" s="75"/>
     </row>
     <row r="53" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="60"/>
-      <c r="B53" s="13" t="s">
+      <c r="A53" s="57"/>
+      <c r="B53" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="13"/>
-      <c r="K53" s="13"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="13"/>
-      <c r="N53" s="13"/>
-      <c r="O53" s="13"/>
-      <c r="P53" s="13"/>
-      <c r="Q53" s="13"/>
-      <c r="R53" s="13"/>
-      <c r="S53" s="88"/>
-      <c r="T53" s="88"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="11"/>
+      <c r="R53" s="11"/>
+      <c r="S53" s="77"/>
+      <c r="T53" s="77"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="89"/>
+      <c r="B54" s="78"/>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B55" s="64" t="s">
+      <c r="B55" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="C55" s="64"/>
-      <c r="D55" s="64" t="s">
+      <c r="C55" s="61"/>
+      <c r="D55" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="E55" s="64"/>
-      <c r="F55" s="64"/>
-      <c r="G55" s="90" t="s">
+      <c r="E55" s="61"/>
+      <c r="F55" s="61"/>
+      <c r="G55" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="H55" s="91"/>
-      <c r="I55" s="92" t="s">
+      <c r="H55" s="80"/>
+      <c r="I55" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="J55" s="92"/>
-      <c r="K55" s="91"/>
-      <c r="L55" s="91"/>
-      <c r="M55" s="93" t="s">
+      <c r="J55" s="81"/>
+      <c r="K55" s="80"/>
+      <c r="L55" s="80"/>
+      <c r="M55" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="N55" s="93"/>
-      <c r="O55" s="93"/>
-      <c r="P55" s="93"/>
-      <c r="Q55" s="93"/>
-      <c r="R55" s="93"/>
+      <c r="N55" s="82"/>
+      <c r="O55" s="82"/>
+      <c r="P55" s="82"/>
+      <c r="Q55" s="82"/>
+      <c r="R55" s="82"/>
     </row>
     <row r="56" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B56" s="94"/>
-      <c r="C56" s="94"/>
-      <c r="D56" s="95"/>
-      <c r="E56" s="95"/>
-      <c r="F56" s="95"/>
-      <c r="G56" s="76"/>
-      <c r="H56" s="96"/>
-      <c r="I56" s="96"/>
-      <c r="J56" s="96"/>
-      <c r="K56" s="97"/>
-      <c r="L56" s="97"/>
-      <c r="M56" s="98"/>
-      <c r="N56" s="98"/>
-      <c r="O56" s="98"/>
-      <c r="P56" s="98"/>
-      <c r="Q56" s="98"/>
-      <c r="R56" s="99"/>
+      <c r="B56" s="83"/>
+      <c r="C56" s="83"/>
+      <c r="D56" s="84"/>
+      <c r="E56" s="84"/>
+      <c r="F56" s="84"/>
+      <c r="G56" s="70"/>
+      <c r="H56" s="85"/>
+      <c r="I56" s="85"/>
+      <c r="J56" s="85"/>
+      <c r="K56" s="86"/>
+      <c r="L56" s="86"/>
+      <c r="M56" s="87"/>
+      <c r="N56" s="87"/>
+      <c r="O56" s="87"/>
+      <c r="P56" s="87"/>
+      <c r="Q56" s="87"/>
+      <c r="R56" s="88"/>
     </row>
     <row r="57" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B57" s="100" t="s">
+      <c r="B57" s="89" t="s">
         <v>120</v>
       </c>
-      <c r="C57" s="100"/>
-      <c r="D57" s="101" t="s">
+      <c r="C57" s="89"/>
+      <c r="D57" s="90" t="s">
         <v>121</v>
       </c>
-      <c r="E57" s="101"/>
-      <c r="F57" s="101"/>
-      <c r="G57" s="102" t="s">
+      <c r="E57" s="90"/>
+      <c r="F57" s="90"/>
+      <c r="G57" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="H57" s="103" t="s">
+      <c r="H57" s="92" t="s">
         <v>122</v>
       </c>
-      <c r="I57" s="103"/>
-      <c r="J57" s="103"/>
-      <c r="K57" s="104"/>
-      <c r="L57" s="104"/>
-      <c r="M57" s="105"/>
-      <c r="N57" s="105"/>
-      <c r="O57" s="105"/>
-      <c r="P57" s="105"/>
-      <c r="Q57" s="105"/>
-      <c r="R57" s="106"/>
+      <c r="I57" s="92"/>
+      <c r="J57" s="92"/>
+      <c r="K57" s="93"/>
+      <c r="L57" s="93"/>
+      <c r="M57" s="94"/>
+      <c r="N57" s="94"/>
+      <c r="O57" s="94"/>
+      <c r="P57" s="94"/>
+      <c r="Q57" s="94"/>
+      <c r="R57" s="95"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B58" s="100"/>
-      <c r="C58" s="100"/>
-      <c r="D58" s="101"/>
-      <c r="E58" s="101"/>
-      <c r="F58" s="101"/>
-      <c r="G58" s="102"/>
-      <c r="H58" s="103"/>
-      <c r="I58" s="103"/>
-      <c r="J58" s="103"/>
-      <c r="K58" s="104"/>
-      <c r="L58" s="104"/>
-      <c r="M58" s="107"/>
-      <c r="N58" s="107"/>
-      <c r="O58" s="107"/>
-      <c r="P58" s="107"/>
-      <c r="Q58" s="107"/>
-      <c r="R58" s="106"/>
+      <c r="B58" s="89"/>
+      <c r="C58" s="89"/>
+      <c r="D58" s="90"/>
+      <c r="E58" s="90"/>
+      <c r="F58" s="90"/>
+      <c r="G58" s="91"/>
+      <c r="H58" s="92"/>
+      <c r="I58" s="92"/>
+      <c r="J58" s="92"/>
+      <c r="K58" s="93"/>
+      <c r="L58" s="93"/>
+      <c r="M58" s="96"/>
+      <c r="N58" s="96"/>
+      <c r="O58" s="96"/>
+      <c r="P58" s="96"/>
+      <c r="Q58" s="96"/>
+      <c r="R58" s="95"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B59" s="108"/>
-      <c r="C59" s="108"/>
-      <c r="D59" s="108"/>
-      <c r="E59" s="108"/>
-      <c r="F59" s="108"/>
-      <c r="G59" s="109"/>
-      <c r="H59" s="110"/>
-      <c r="I59" s="111"/>
-      <c r="J59" s="112"/>
-      <c r="K59" s="104"/>
-      <c r="L59" s="104"/>
-      <c r="M59" s="107"/>
-      <c r="N59" s="107"/>
-      <c r="O59" s="107"/>
-      <c r="P59" s="107"/>
-      <c r="Q59" s="107"/>
-      <c r="R59" s="106"/>
+      <c r="B59" s="97"/>
+      <c r="C59" s="97"/>
+      <c r="D59" s="97"/>
+      <c r="E59" s="97"/>
+      <c r="F59" s="97"/>
+      <c r="G59" s="98"/>
+      <c r="H59" s="99"/>
+      <c r="I59" s="100"/>
+      <c r="J59" s="101"/>
+      <c r="K59" s="93"/>
+      <c r="L59" s="93"/>
+      <c r="M59" s="96"/>
+      <c r="N59" s="96"/>
+      <c r="O59" s="96"/>
+      <c r="P59" s="96"/>
+      <c r="Q59" s="96"/>
+      <c r="R59" s="95"/>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B60" s="113"/>
-      <c r="C60" s="113"/>
-      <c r="D60" s="113"/>
-      <c r="E60" s="113"/>
-      <c r="F60" s="113"/>
-      <c r="G60" s="104"/>
-      <c r="H60" s="114"/>
-      <c r="I60" s="115"/>
-      <c r="J60" s="106"/>
-      <c r="K60" s="104"/>
-      <c r="L60" s="104"/>
-      <c r="M60" s="116"/>
-      <c r="N60" s="116"/>
-      <c r="O60" s="116"/>
-      <c r="P60" s="116"/>
-      <c r="Q60" s="116"/>
-      <c r="R60" s="106"/>
+      <c r="B60" s="102"/>
+      <c r="C60" s="102"/>
+      <c r="D60" s="102"/>
+      <c r="E60" s="102"/>
+      <c r="F60" s="102"/>
+      <c r="G60" s="93"/>
+      <c r="H60" s="103"/>
+      <c r="I60" s="104"/>
+      <c r="J60" s="95"/>
+      <c r="K60" s="93"/>
+      <c r="L60" s="93"/>
+      <c r="M60" s="105"/>
+      <c r="N60" s="105"/>
+      <c r="O60" s="105"/>
+      <c r="P60" s="105"/>
+      <c r="Q60" s="105"/>
+      <c r="R60" s="95"/>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B61" s="113"/>
-      <c r="C61" s="113"/>
-      <c r="D61" s="113"/>
-      <c r="E61" s="113"/>
-      <c r="F61" s="113"/>
-      <c r="G61" s="104"/>
-      <c r="H61" s="114"/>
-      <c r="I61" s="115"/>
-      <c r="J61" s="106"/>
-      <c r="K61" s="104"/>
-      <c r="L61" s="104"/>
-      <c r="M61" s="116"/>
-      <c r="N61" s="116"/>
-      <c r="O61" s="116"/>
-      <c r="P61" s="116"/>
-      <c r="Q61" s="116"/>
-      <c r="R61" s="106"/>
+      <c r="B61" s="102"/>
+      <c r="C61" s="102"/>
+      <c r="D61" s="102"/>
+      <c r="E61" s="102"/>
+      <c r="F61" s="102"/>
+      <c r="G61" s="93"/>
+      <c r="H61" s="103"/>
+      <c r="I61" s="104"/>
+      <c r="J61" s="95"/>
+      <c r="K61" s="93"/>
+      <c r="L61" s="93"/>
+      <c r="M61" s="105"/>
+      <c r="N61" s="105"/>
+      <c r="O61" s="105"/>
+      <c r="P61" s="105"/>
+      <c r="Q61" s="105"/>
+      <c r="R61" s="95"/>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="117"/>
-      <c r="C68" s="117"/>
-      <c r="D68" s="117"/>
-      <c r="E68" s="117"/>
-      <c r="F68" s="117"/>
+      <c r="B68" s="106"/>
+      <c r="C68" s="106"/>
+      <c r="D68" s="106"/>
+      <c r="E68" s="106"/>
+      <c r="F68" s="106"/>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C69" s="118"/>
-      <c r="R69" s="118"/>
+      <c r="C69" s="107"/>
+      <c r="R69" s="107"/>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C70" s="119" t="s">
+      <c r="C70" s="108" t="s">
         <v>127</v>
       </c>
-      <c r="D70" s="119"/>
-      <c r="E70" s="119"/>
-      <c r="F70" s="119"/>
-      <c r="R70" s="119" t="s">
+      <c r="D70" s="108"/>
+      <c r="E70" s="108"/>
+      <c r="F70" s="108"/>
+      <c r="R70" s="108" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C71" s="119" t="s">
+      <c r="C71" s="108" t="s">
         <v>129</v>
       </c>
-      <c r="D71" s="119"/>
-      <c r="E71" s="119"/>
-      <c r="F71" s="119"/>
-      <c r="R71" s="119" t="s">
+      <c r="D71" s="108"/>
+      <c r="E71" s="108"/>
+      <c r="F71" s="108"/>
+      <c r="R71" s="108" t="s">
         <v>10</v>
       </c>
     </row>
